--- a/Excel/test.xlsx
+++ b/Excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16780"/>
+    <workbookView windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
